--- a/excel_files/pan_binary_heatmap_fixed_short.xlsx
+++ b/excel_files/pan_binary_heatmap_fixed_short.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galambosd/meta'omics/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgalambos/Documents/GitHub/meta-omics/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AV6" sqref="AV6"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15649,7 +15649,7 @@
         <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D105">
         <v>0</v>

--- a/excel_files/pan_binary_heatmap_fixed_short.xlsx
+++ b/excel_files/pan_binary_heatmap_fixed_short.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgalambos/Documents/GitHub/meta-omics/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galambosd/meta'omics/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1185,6 +1185,7 @@
     <col min="9" max="9" width="14.83203125" customWidth="1"/>
     <col min="10" max="10" width="19.5" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="45" max="45" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
@@ -15649,7 +15650,7 @@
         <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D105">
         <v>0</v>
